--- a/data/pca/factorExposure/factorExposure_2015-06-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.0199154437420643</v>
+        <v>0.01011348510384132</v>
       </c>
       <c r="C2">
-        <v>0.01916720482739461</v>
+        <v>-0.05150006251199975</v>
       </c>
       <c r="D2">
-        <v>-0.1052555227154017</v>
+        <v>-0.125662177616592</v>
       </c>
       <c r="E2">
-        <v>0.008227449156171362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02244327894520414</v>
+      </c>
+      <c r="F2">
+        <v>-0.02928290174764031</v>
+      </c>
+      <c r="G2">
+        <v>-0.1366662423835043</v>
+      </c>
+      <c r="H2">
+        <v>0.0366307640415383</v>
+      </c>
+      <c r="I2">
+        <v>-0.1287356938971273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.0009161869095556708</v>
+        <v>0.0001248700970408411</v>
       </c>
       <c r="C3">
-        <v>0.0013610935717624</v>
+        <v>-0.001098071831437033</v>
       </c>
       <c r="D3">
-        <v>0.006135574992141198</v>
+        <v>0.00209837628260174</v>
       </c>
       <c r="E3">
-        <v>-0.002454925474819097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.005558898644682499</v>
+      </c>
+      <c r="F3">
+        <v>0.003392141433414098</v>
+      </c>
+      <c r="G3">
+        <v>-0.005289364213864146</v>
+      </c>
+      <c r="H3">
+        <v>-0.01210239926006918</v>
+      </c>
+      <c r="I3">
+        <v>0.001971821367733968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04429486937291392</v>
+        <v>0.01965190024922922</v>
       </c>
       <c r="C4">
-        <v>0.07296908670759354</v>
+        <v>-0.1052630129627114</v>
       </c>
       <c r="D4">
-        <v>-0.1313584619112357</v>
+        <v>-0.1305985362497239</v>
       </c>
       <c r="E4">
-        <v>0.08173221312503275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.009051697255784238</v>
+      </c>
+      <c r="F4">
+        <v>-0.08962374630904352</v>
+      </c>
+      <c r="G4">
+        <v>-0.01078545053237279</v>
+      </c>
+      <c r="H4">
+        <v>0.04627188561829227</v>
+      </c>
+      <c r="I4">
+        <v>0.06734901710624902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02145519117436328</v>
+        <v>0.02731567331608576</v>
       </c>
       <c r="C6">
-        <v>0.01257887501851387</v>
+        <v>-0.03411714926661875</v>
       </c>
       <c r="D6">
-        <v>-0.136452910605061</v>
+        <v>-0.1201700171692178</v>
       </c>
       <c r="E6">
-        <v>0.03655541498388463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.05742518882532128</v>
+      </c>
+      <c r="F6">
+        <v>-0.04688151484667345</v>
+      </c>
+      <c r="G6">
+        <v>-0.008908710167130707</v>
+      </c>
+      <c r="H6">
+        <v>0.04777241857042804</v>
+      </c>
+      <c r="I6">
+        <v>0.03133298688292298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.002791875461029211</v>
+        <v>0.009408463109521599</v>
       </c>
       <c r="C7">
-        <v>0.02386455938792485</v>
+        <v>-0.03679555978190337</v>
       </c>
       <c r="D7">
-        <v>-0.1122585569897351</v>
+        <v>-0.09735024243397256</v>
       </c>
       <c r="E7">
-        <v>0.00309575130621386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05305837153315965</v>
+      </c>
+      <c r="F7">
+        <v>-0.01014329685381902</v>
+      </c>
+      <c r="G7">
+        <v>-0.006977692182591411</v>
+      </c>
+      <c r="H7">
+        <v>0.07924370840672236</v>
+      </c>
+      <c r="I7">
+        <v>0.003216620586665791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.004540220856732808</v>
+        <v>-0.00728609893753366</v>
       </c>
       <c r="C8">
-        <v>0.0258423585333058</v>
+        <v>-0.03466080985124785</v>
       </c>
       <c r="D8">
-        <v>-0.07723544194911935</v>
+        <v>-0.07434173274604637</v>
       </c>
       <c r="E8">
-        <v>0.02267888510099736</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.03799324842557126</v>
+      </c>
+      <c r="F8">
+        <v>-0.04937830935622373</v>
+      </c>
+      <c r="G8">
+        <v>-0.0615293147571915</v>
+      </c>
+      <c r="H8">
+        <v>0.001058444991519615</v>
+      </c>
+      <c r="I8">
+        <v>0.008863093348184654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03623802619671146</v>
+        <v>0.01363245569587796</v>
       </c>
       <c r="C9">
-        <v>0.0615513014210516</v>
+        <v>-0.08695257273695478</v>
       </c>
       <c r="D9">
-        <v>-0.1311743745466193</v>
+        <v>-0.1136509321186106</v>
       </c>
       <c r="E9">
-        <v>0.06597642711235541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.0106118673051797</v>
+      </c>
+      <c r="F9">
+        <v>-0.05990889104478383</v>
+      </c>
+      <c r="G9">
+        <v>0.004962939128540395</v>
+      </c>
+      <c r="H9">
+        <v>0.06267771504652234</v>
+      </c>
+      <c r="I9">
+        <v>0.03887043578551532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1710425360482308</v>
+        <v>0.238521479310059</v>
       </c>
       <c r="C10">
-        <v>-0.1708577594598549</v>
+        <v>0.09606322763727919</v>
       </c>
       <c r="D10">
-        <v>-0.005175435174756154</v>
+        <v>0.002920084576778377</v>
       </c>
       <c r="E10">
-        <v>0.04522968051116587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01044080676090003</v>
+      </c>
+      <c r="F10">
+        <v>-0.04358025633239104</v>
+      </c>
+      <c r="G10">
+        <v>0.004401110892837006</v>
+      </c>
+      <c r="H10">
+        <v>-0.05334941386608349</v>
+      </c>
+      <c r="I10">
+        <v>-0.01751654516253572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.01884932365002647</v>
+        <v>0.0103892357915199</v>
       </c>
       <c r="C11">
-        <v>0.0408209445411143</v>
+        <v>-0.05487627430120828</v>
       </c>
       <c r="D11">
-        <v>-0.04784028538344965</v>
+        <v>-0.04407336834823377</v>
       </c>
       <c r="E11">
-        <v>-0.0156267611052274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01935195918891967</v>
+      </c>
+      <c r="F11">
+        <v>0.01239705605693003</v>
+      </c>
+      <c r="G11">
+        <v>-0.0008670052451543592</v>
+      </c>
+      <c r="H11">
+        <v>0.04699026626650799</v>
+      </c>
+      <c r="I11">
+        <v>0.05807147397140711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01967463601615232</v>
+        <v>0.01051260540427839</v>
       </c>
       <c r="C12">
-        <v>0.03979618235373871</v>
+        <v>-0.04903737755724237</v>
       </c>
       <c r="D12">
-        <v>-0.06075900090129668</v>
+        <v>-0.04776315781136962</v>
       </c>
       <c r="E12">
-        <v>-0.005110057833242348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01503113134089412</v>
+      </c>
+      <c r="F12">
+        <v>0.01554939282729907</v>
+      </c>
+      <c r="G12">
+        <v>0.01378601027448421</v>
+      </c>
+      <c r="H12">
+        <v>0.07066321262221627</v>
+      </c>
+      <c r="I12">
+        <v>0.02450709600015022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.001759727466970351</v>
+        <v>-0.003030030061935174</v>
       </c>
       <c r="C13">
-        <v>0.02257072871208782</v>
+        <v>-0.04606266066383968</v>
       </c>
       <c r="D13">
-        <v>-0.143001348997873</v>
+        <v>-0.1492792219736827</v>
       </c>
       <c r="E13">
-        <v>0.03541671284602523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03824635256464762</v>
+      </c>
+      <c r="F13">
+        <v>-0.03490347340623815</v>
+      </c>
+      <c r="G13">
+        <v>-0.03193666968668204</v>
+      </c>
+      <c r="H13">
+        <v>0.06008073500807616</v>
+      </c>
+      <c r="I13">
+        <v>-0.08167685206900516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.005560173174926941</v>
+        <v>0.001126553669547324</v>
       </c>
       <c r="C14">
-        <v>0.01678849360856249</v>
+        <v>-0.03051698693346155</v>
       </c>
       <c r="D14">
-        <v>-0.09801301814272381</v>
+        <v>-0.1032913802316751</v>
       </c>
       <c r="E14">
-        <v>0.01092512512595563</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.04959268431450337</v>
+      </c>
+      <c r="F14">
+        <v>-0.03718598376573627</v>
+      </c>
+      <c r="G14">
+        <v>-0.03604376581299733</v>
+      </c>
+      <c r="H14">
+        <v>0.125052754983476</v>
+      </c>
+      <c r="I14">
+        <v>-0.00172701951453949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002856324740682895</v>
+        <v>-0.001511547404215429</v>
       </c>
       <c r="C15">
-        <v>0.0105163209532172</v>
+        <v>-0.02509308064662805</v>
       </c>
       <c r="D15">
-        <v>-0.03097171784906605</v>
+        <v>-0.05899441732321022</v>
       </c>
       <c r="E15">
-        <v>-0.004103449612136468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.009641951889011388</v>
+      </c>
+      <c r="F15">
+        <v>-0.007191473221088982</v>
+      </c>
+      <c r="G15">
+        <v>-0.02377857721311771</v>
+      </c>
+      <c r="H15">
+        <v>0.03095576142881776</v>
+      </c>
+      <c r="I15">
+        <v>0.0220073724203049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.01839634203405958</v>
+        <v>0.01043507146372411</v>
       </c>
       <c r="C16">
-        <v>0.03670916663745782</v>
+        <v>-0.04851872561120583</v>
       </c>
       <c r="D16">
-        <v>-0.05443541478206557</v>
+        <v>-0.04458688815728457</v>
       </c>
       <c r="E16">
-        <v>-0.007438139485797036</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.0211944131725067</v>
+      </c>
+      <c r="F16">
+        <v>0.008247017125712382</v>
+      </c>
+      <c r="G16">
+        <v>0.0100226950377038</v>
+      </c>
+      <c r="H16">
+        <v>0.05105236462045013</v>
+      </c>
+      <c r="I16">
+        <v>0.04969125761824527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.004369779087387867</v>
+        <v>0.0004176091189030587</v>
       </c>
       <c r="C19">
-        <v>0.0180346473268889</v>
+        <v>-0.01739828314982238</v>
       </c>
       <c r="D19">
-        <v>-0.1021419321359805</v>
+        <v>-0.06315868261390205</v>
       </c>
       <c r="E19">
-        <v>0.04188620473950828</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01113085045377558</v>
+      </c>
+      <c r="F19">
+        <v>-0.01548514567188872</v>
+      </c>
+      <c r="G19">
+        <v>-0.021959783379746</v>
+      </c>
+      <c r="H19">
+        <v>0.05694554362492994</v>
+      </c>
+      <c r="I19">
+        <v>-0.03354986424031427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.002402008750437913</v>
+        <v>0.005525274240517073</v>
       </c>
       <c r="C20">
-        <v>0.0238916496337447</v>
+        <v>-0.03990770815810862</v>
       </c>
       <c r="D20">
-        <v>-0.08541403944886658</v>
+        <v>-0.09264692621699681</v>
       </c>
       <c r="E20">
-        <v>0.03384326216580458</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02293682660560537</v>
+      </c>
+      <c r="F20">
+        <v>-0.02944770249781546</v>
+      </c>
+      <c r="G20">
+        <v>-0.002969916306815352</v>
+      </c>
+      <c r="H20">
+        <v>0.05834948442024655</v>
+      </c>
+      <c r="I20">
+        <v>0.04816229334214418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.005505909063389151</v>
+        <v>0.005093991624057663</v>
       </c>
       <c r="C21">
-        <v>0.02826416228577028</v>
+        <v>-0.04465423042345625</v>
       </c>
       <c r="D21">
-        <v>-0.1612901170836726</v>
+        <v>-0.1310610374442269</v>
       </c>
       <c r="E21">
-        <v>0.07482949908400083</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02942880322288524</v>
+      </c>
+      <c r="F21">
+        <v>-0.09849773522846551</v>
+      </c>
+      <c r="G21">
+        <v>-0.05561386726771526</v>
+      </c>
+      <c r="H21">
+        <v>0.1873066471407123</v>
+      </c>
+      <c r="I21">
+        <v>-0.1352767601518301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.002414089092341057</v>
+        <v>-0.007167401359694903</v>
       </c>
       <c r="C22">
-        <v>0.06359979004711315</v>
+        <v>-0.08744217075125903</v>
       </c>
       <c r="D22">
-        <v>-0.2458332721648637</v>
+        <v>-0.2602477061129051</v>
       </c>
       <c r="E22">
-        <v>-0.0209908632010439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.05392950699705821</v>
+      </c>
+      <c r="F22">
+        <v>-0.01669651842938013</v>
+      </c>
+      <c r="G22">
+        <v>-0.2905329736736031</v>
+      </c>
+      <c r="H22">
+        <v>-0.447293232653426</v>
+      </c>
+      <c r="I22">
+        <v>0.0802563412448796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.002146365740314944</v>
+        <v>-0.006744515157063316</v>
       </c>
       <c r="C23">
-        <v>0.06410617705195425</v>
+        <v>-0.08859031735607988</v>
       </c>
       <c r="D23">
-        <v>-0.2453485181865209</v>
+        <v>-0.2611413564226383</v>
       </c>
       <c r="E23">
-        <v>-0.02086613018906485</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.05090430134532971</v>
+      </c>
+      <c r="F23">
+        <v>-0.0170251762077991</v>
+      </c>
+      <c r="G23">
+        <v>-0.290624697451364</v>
+      </c>
+      <c r="H23">
+        <v>-0.4467638590536926</v>
+      </c>
+      <c r="I23">
+        <v>0.07966816958364098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02347793307121637</v>
+        <v>0.0100049735293714</v>
       </c>
       <c r="C24">
-        <v>0.0558690191593447</v>
+        <v>-0.06555618896222264</v>
       </c>
       <c r="D24">
-        <v>-0.06740776223681071</v>
+        <v>-0.05118657738642228</v>
       </c>
       <c r="E24">
-        <v>-0.003139894738547113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02893456513428266</v>
+      </c>
+      <c r="F24">
+        <v>0.003794183659869157</v>
+      </c>
+      <c r="G24">
+        <v>-0.002983486617909107</v>
+      </c>
+      <c r="H24">
+        <v>0.07434375403073119</v>
+      </c>
+      <c r="I24">
+        <v>0.04300379350164855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02535646356171036</v>
+        <v>0.01427321080839682</v>
       </c>
       <c r="C25">
-        <v>0.04740329459239308</v>
+        <v>-0.06003194675272967</v>
       </c>
       <c r="D25">
-        <v>-0.05906365585855369</v>
+        <v>-0.04875620640172365</v>
       </c>
       <c r="E25">
-        <v>0.0007633371457620852</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.0136774317056662</v>
+      </c>
+      <c r="F25">
+        <v>0.005357584913391202</v>
+      </c>
+      <c r="G25">
+        <v>0.004716208754478846</v>
+      </c>
+      <c r="H25">
+        <v>0.0414109410088464</v>
+      </c>
+      <c r="I25">
+        <v>0.03831783992428812</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.006730145798108498</v>
+        <v>0.01404147319231182</v>
       </c>
       <c r="C26">
-        <v>0.01565588680213719</v>
+        <v>-0.02664696534801137</v>
       </c>
       <c r="D26">
-        <v>-0.08133682699486167</v>
+        <v>-0.06727081025105613</v>
       </c>
       <c r="E26">
-        <v>0.01937488320559027</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04134402927732942</v>
+      </c>
+      <c r="F26">
+        <v>-0.04341202282955098</v>
+      </c>
+      <c r="G26">
+        <v>-0.01933130684517662</v>
+      </c>
+      <c r="H26">
+        <v>0.09354347870609453</v>
+      </c>
+      <c r="I26">
+        <v>-0.01789353276015664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2562607035133417</v>
+        <v>0.3188379563294065</v>
       </c>
       <c r="C28">
-        <v>-0.2004667356192725</v>
+        <v>0.09415831868192052</v>
       </c>
       <c r="D28">
-        <v>-0.01915406313565356</v>
+        <v>0.01261652594816367</v>
       </c>
       <c r="E28">
-        <v>0.06087717789430556</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05011962325052535</v>
+      </c>
+      <c r="F28">
+        <v>-0.04761256046099534</v>
+      </c>
+      <c r="G28">
+        <v>-0.03617618253790029</v>
+      </c>
+      <c r="H28">
+        <v>-0.01323301238767444</v>
+      </c>
+      <c r="I28">
+        <v>-0.04167323918808123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.002057505004563685</v>
+        <v>0.0003512111355437141</v>
       </c>
       <c r="C29">
-        <v>0.02115008470824982</v>
+        <v>-0.03583220821101472</v>
       </c>
       <c r="D29">
-        <v>-0.09643593932960358</v>
+        <v>-0.1046287248786857</v>
       </c>
       <c r="E29">
-        <v>0.01594359317508373</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.05585672498318886</v>
+      </c>
+      <c r="F29">
+        <v>-0.03950496739004898</v>
+      </c>
+      <c r="G29">
+        <v>-0.02043132880049205</v>
+      </c>
+      <c r="H29">
+        <v>0.1323122722343161</v>
+      </c>
+      <c r="I29">
+        <v>0.0131750736995418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02190504221897985</v>
+        <v>0.01426108588246277</v>
       </c>
       <c r="C30">
-        <v>0.05896318451585693</v>
+        <v>-0.08674225644573627</v>
       </c>
       <c r="D30">
-        <v>-0.1662738557468674</v>
+        <v>-0.1503086733010861</v>
       </c>
       <c r="E30">
-        <v>0.02370524955351285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05296899956068039</v>
+      </c>
+      <c r="F30">
+        <v>-0.03267284890152963</v>
+      </c>
+      <c r="G30">
+        <v>-0.03609544477793439</v>
+      </c>
+      <c r="H30">
+        <v>0.04871277187172045</v>
+      </c>
+      <c r="I30">
+        <v>0.05633595133431572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.03774299381467292</v>
+        <v>0.009710284840555868</v>
       </c>
       <c r="C31">
-        <v>0.0846387880086643</v>
+        <v>-0.09270071692206758</v>
       </c>
       <c r="D31">
-        <v>-0.06926548033768933</v>
+        <v>-0.04131608955032687</v>
       </c>
       <c r="E31">
-        <v>0.01273998157125367</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01910592159376635</v>
+      </c>
+      <c r="F31">
+        <v>-0.01456283658017258</v>
+      </c>
+      <c r="G31">
+        <v>-0.009071307905987926</v>
+      </c>
+      <c r="H31">
+        <v>0.04327903397102775</v>
+      </c>
+      <c r="I31">
+        <v>-0.007359111179748324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01751046771789766</v>
+        <v>0.009726514182027735</v>
       </c>
       <c r="C32">
-        <v>0.03240247724524908</v>
+        <v>-0.04828931998241469</v>
       </c>
       <c r="D32">
-        <v>-0.1028373440310235</v>
+        <v>-0.1095858562682298</v>
       </c>
       <c r="E32">
-        <v>0.06542023542889601</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.003522926894537209</v>
+      </c>
+      <c r="F32">
+        <v>-0.05104115412136895</v>
+      </c>
+      <c r="G32">
+        <v>-0.02215838358430082</v>
+      </c>
+      <c r="H32">
+        <v>0.04247967435350859</v>
+      </c>
+      <c r="I32">
+        <v>-0.07221890353591658</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.008633138944799652</v>
+        <v>0.006758497293566567</v>
       </c>
       <c r="C33">
-        <v>0.04044067156273607</v>
+        <v>-0.05842880202187006</v>
       </c>
       <c r="D33">
-        <v>-0.1390571601533773</v>
+        <v>-0.1223931338467345</v>
       </c>
       <c r="E33">
-        <v>0.03974034110477245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.0265203816998702</v>
+      </c>
+      <c r="F33">
+        <v>-0.02895976528317874</v>
+      </c>
+      <c r="G33">
+        <v>-0.01222167760431454</v>
+      </c>
+      <c r="H33">
+        <v>0.06302424179278243</v>
+      </c>
+      <c r="I33">
+        <v>0.01264036682730118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02145253853792558</v>
+        <v>0.007717178969153816</v>
       </c>
       <c r="C34">
-        <v>0.05842455616761726</v>
+        <v>-0.0618457817511134</v>
       </c>
       <c r="D34">
-        <v>-0.05057423571450742</v>
+        <v>-0.03017604840740495</v>
       </c>
       <c r="E34">
-        <v>-0.04554976621647894</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02919533084341913</v>
+      </c>
+      <c r="F34">
+        <v>0.03763671800270248</v>
+      </c>
+      <c r="G34">
+        <v>0.0002463146051878721</v>
+      </c>
+      <c r="H34">
+        <v>0.05989687438268399</v>
+      </c>
+      <c r="I34">
+        <v>0.02328262928277117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001336156934917571</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01012852936112746</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03221287736592109</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.003580967310709841</v>
+      </c>
+      <c r="F35">
+        <v>-0.01729641339451954</v>
+      </c>
+      <c r="G35">
+        <v>-0.01103173154454047</v>
+      </c>
+      <c r="H35">
+        <v>0.04056403745935571</v>
+      </c>
+      <c r="I35">
+        <v>0.03598442452825856</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.006116901835731799</v>
+        <v>0.01195351481679425</v>
       </c>
       <c r="C36">
-        <v>0.005914491090682409</v>
+        <v>-0.02035826033837721</v>
       </c>
       <c r="D36">
-        <v>-0.08565984060000581</v>
+        <v>-0.07499994523166041</v>
       </c>
       <c r="E36">
-        <v>0.04359667056350416</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02638057896303871</v>
+      </c>
+      <c r="F36">
+        <v>-0.04948016782545179</v>
+      </c>
+      <c r="G36">
+        <v>-0.01450790115461846</v>
+      </c>
+      <c r="H36">
+        <v>0.06445553136780161</v>
+      </c>
+      <c r="I36">
+        <v>-0.006370442209647286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.004441520078214365</v>
+        <v>0.01411949543899893</v>
       </c>
       <c r="C38">
-        <v>0.006896691157339501</v>
+        <v>-0.01880753031412625</v>
       </c>
       <c r="D38">
-        <v>-0.08760275440613788</v>
+        <v>-0.0838641720566343</v>
       </c>
       <c r="E38">
-        <v>0.009915484464475639</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.001917251933403714</v>
+      </c>
+      <c r="F38">
+        <v>-0.001492563364617076</v>
+      </c>
+      <c r="G38">
+        <v>-0.03397310963915043</v>
+      </c>
+      <c r="H38">
+        <v>0.06087218858472039</v>
+      </c>
+      <c r="I38">
+        <v>0.01719596703687227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01520282056548434</v>
+        <v>0.003371434973063163</v>
       </c>
       <c r="C39">
-        <v>0.05669608123404318</v>
+        <v>-0.07510476785868919</v>
       </c>
       <c r="D39">
-        <v>-0.1135357900682592</v>
+        <v>-0.09560010787241396</v>
       </c>
       <c r="E39">
-        <v>-0.01491246420686648</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0527380078562763</v>
+      </c>
+      <c r="F39">
+        <v>0.003729233988045228</v>
+      </c>
+      <c r="G39">
+        <v>-0.006974193858169771</v>
+      </c>
+      <c r="H39">
+        <v>0.1010310599190489</v>
+      </c>
+      <c r="I39">
+        <v>0.0453747904703244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01061639234287329</v>
+        <v>0.01273139695971741</v>
       </c>
       <c r="C40">
-        <v>0.01739123896867761</v>
+        <v>-0.03075036599635634</v>
       </c>
       <c r="D40">
-        <v>-0.1221002369465889</v>
+        <v>-0.1012091906232347</v>
       </c>
       <c r="E40">
-        <v>-0.0188955462203329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04887594797426457</v>
+      </c>
+      <c r="F40">
+        <v>0.0228075100378072</v>
+      </c>
+      <c r="G40">
+        <v>-0.06358798591841058</v>
+      </c>
+      <c r="H40">
+        <v>0.07054012334798083</v>
+      </c>
+      <c r="I40">
+        <v>-0.08662407083840554</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01010798340298991</v>
+        <v>0.01648584614328374</v>
       </c>
       <c r="C41">
-        <v>0.003403516556860627</v>
+        <v>-0.01671028763097538</v>
       </c>
       <c r="D41">
-        <v>-0.04671868791322343</v>
+        <v>-0.04641121099815581</v>
       </c>
       <c r="E41">
-        <v>0.03178233414656065</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.007737027584211841</v>
+      </c>
+      <c r="F41">
+        <v>-0.02423968564610548</v>
+      </c>
+      <c r="G41">
+        <v>-0.01510596093736857</v>
+      </c>
+      <c r="H41">
+        <v>0.04237335711543313</v>
+      </c>
+      <c r="I41">
+        <v>0.01342103717889802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.003302302366007077</v>
+        <v>0.01034872105197107</v>
       </c>
       <c r="C43">
-        <v>0.004010487783150339</v>
+        <v>-0.01390658689450897</v>
       </c>
       <c r="D43">
-        <v>-0.05571914350294566</v>
+        <v>-0.05148350025713899</v>
       </c>
       <c r="E43">
-        <v>0.02109521565173312</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.008385630023363752</v>
+      </c>
+      <c r="F43">
+        <v>-0.01996669003888307</v>
+      </c>
+      <c r="G43">
+        <v>-0.01682163363954453</v>
+      </c>
+      <c r="H43">
+        <v>0.05738813630511296</v>
+      </c>
+      <c r="I43">
+        <v>0.02837825231583706</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01626492410668651</v>
+        <v>0.01163329821484086</v>
       </c>
       <c r="C44">
-        <v>0.02252334850690945</v>
+        <v>-0.04647378849549704</v>
       </c>
       <c r="D44">
-        <v>-0.1082610032571936</v>
+        <v>-0.110771894563568</v>
       </c>
       <c r="E44">
-        <v>0.04888002389110171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.03853874660743242</v>
+      </c>
+      <c r="F44">
+        <v>-0.03756580876463018</v>
+      </c>
+      <c r="G44">
+        <v>-0.03655366562894038</v>
+      </c>
+      <c r="H44">
+        <v>0.04919627951415759</v>
+      </c>
+      <c r="I44">
+        <v>0.04435594998238599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.005508277599859181</v>
+        <v>-0.0002846106043289488</v>
       </c>
       <c r="C46">
-        <v>0.02877633253235209</v>
+        <v>-0.04077197286093259</v>
       </c>
       <c r="D46">
-        <v>-0.09037061405277039</v>
+        <v>-0.07584606305583363</v>
       </c>
       <c r="E46">
-        <v>0.01751365202698424</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04206746706253633</v>
+      </c>
+      <c r="F46">
+        <v>-0.03396288232199073</v>
+      </c>
+      <c r="G46">
+        <v>-0.03424052789575596</v>
+      </c>
+      <c r="H46">
+        <v>0.1320200778811128</v>
+      </c>
+      <c r="I46">
+        <v>0.0366669362379678</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08010893985503989</v>
+        <v>0.0354297805772579</v>
       </c>
       <c r="C47">
-        <v>0.1072907641896344</v>
+        <v>-0.1261729982700936</v>
       </c>
       <c r="D47">
-        <v>-0.05788145097200092</v>
+        <v>-0.02395373262729434</v>
       </c>
       <c r="E47">
-        <v>0.02882445687580806</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.007793471154035568</v>
+      </c>
+      <c r="F47">
+        <v>0.003862762184849841</v>
+      </c>
+      <c r="G47">
+        <v>0.03274441745198172</v>
+      </c>
+      <c r="H47">
+        <v>0.05965405658104064</v>
+      </c>
+      <c r="I47">
+        <v>-0.04249260512374029</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.007189573973738097</v>
+        <v>0.0130413264048703</v>
       </c>
       <c r="C48">
-        <v>0.01519198081344335</v>
+        <v>-0.0305680696046073</v>
       </c>
       <c r="D48">
-        <v>-0.08928100310023369</v>
+        <v>-0.08030809930759633</v>
       </c>
       <c r="E48">
-        <v>0.05551893066092944</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.01916988410742742</v>
+      </c>
+      <c r="F48">
+        <v>-0.05958105592704546</v>
+      </c>
+      <c r="G48">
+        <v>-0.02730366591745027</v>
+      </c>
+      <c r="H48">
+        <v>0.1026985555805445</v>
+      </c>
+      <c r="I48">
+        <v>0.008214036838075598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03573911797911138</v>
+        <v>0.01530072055286594</v>
       </c>
       <c r="C50">
-        <v>0.05978021709681591</v>
+        <v>-0.07526088394963831</v>
       </c>
       <c r="D50">
-        <v>-0.06358575032604989</v>
+        <v>-0.04854190633633217</v>
       </c>
       <c r="E50">
-        <v>0.008204587368482119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01153107165161458</v>
+      </c>
+      <c r="F50">
+        <v>-0.01016170403431996</v>
+      </c>
+      <c r="G50">
+        <v>-0.02166505515531507</v>
+      </c>
+      <c r="H50">
+        <v>0.03156254732843652</v>
+      </c>
+      <c r="I50">
+        <v>-0.01180644779111563</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.001950099054468985</v>
+        <v>-0.0009037932513604766</v>
       </c>
       <c r="C51">
-        <v>0.004205549713595639</v>
+        <v>-0.01703183885428041</v>
       </c>
       <c r="D51">
-        <v>-0.06030859768163071</v>
+        <v>-0.05923047763449758</v>
       </c>
       <c r="E51">
-        <v>0.001347896927756289</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.04038128839848024</v>
+      </c>
+      <c r="F51">
+        <v>-0.03908620386621615</v>
+      </c>
+      <c r="G51">
+        <v>-0.03285086755495327</v>
+      </c>
+      <c r="H51">
+        <v>0.03831886845414588</v>
+      </c>
+      <c r="I51">
+        <v>-0.01679337435144325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1083535618371712</v>
+        <v>0.05571711031784048</v>
       </c>
       <c r="C53">
-        <v>0.1241255716295071</v>
+        <v>-0.1558689196743769</v>
       </c>
       <c r="D53">
-        <v>-0.01166262967120571</v>
+        <v>0.02079506682179253</v>
       </c>
       <c r="E53">
-        <v>0.06030104473280433</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02847069707936731</v>
+      </c>
+      <c r="F53">
+        <v>-0.04915268773201446</v>
+      </c>
+      <c r="G53">
+        <v>-0.004040853906408763</v>
+      </c>
+      <c r="H53">
+        <v>0.001786933728753963</v>
+      </c>
+      <c r="I53">
+        <v>-0.003691092064876953</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01142014759115161</v>
+        <v>0.009512775572295637</v>
       </c>
       <c r="C54">
-        <v>0.02050195603305677</v>
+        <v>-0.03730639762632278</v>
       </c>
       <c r="D54">
-        <v>-0.09222120506152497</v>
+        <v>-0.07787588623889481</v>
       </c>
       <c r="E54">
-        <v>0.004358450410067581</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01439783745054325</v>
+      </c>
+      <c r="F54">
+        <v>-0.004212611810781232</v>
+      </c>
+      <c r="G54">
+        <v>-0.03874702125653468</v>
+      </c>
+      <c r="H54">
+        <v>0.07628172962843686</v>
+      </c>
+      <c r="I54">
+        <v>0.04253390098392958</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09570890566200722</v>
+        <v>0.04284089457818384</v>
       </c>
       <c r="C55">
-        <v>0.1055679207456315</v>
+        <v>-0.1302094158029426</v>
       </c>
       <c r="D55">
-        <v>-0.006416383672941876</v>
+        <v>0.03167487858658891</v>
       </c>
       <c r="E55">
-        <v>0.01120240120920186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.004943168774373946</v>
+      </c>
+      <c r="F55">
+        <v>-0.01342000107492377</v>
+      </c>
+      <c r="G55">
+        <v>-0.01130121419204899</v>
+      </c>
+      <c r="H55">
+        <v>0.008492061745074391</v>
+      </c>
+      <c r="I55">
+        <v>-0.02797261011644922</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1327070731390066</v>
+        <v>0.05756017927429973</v>
       </c>
       <c r="C56">
-        <v>0.1420443684072454</v>
+        <v>-0.1879351451355148</v>
       </c>
       <c r="D56">
-        <v>-0.0008717001516807402</v>
+        <v>0.03243025052515986</v>
       </c>
       <c r="E56">
-        <v>0.01119787147713849</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03030700739668773</v>
+      </c>
+      <c r="F56">
+        <v>-0.01714037766941271</v>
+      </c>
+      <c r="G56">
+        <v>-0.05804330168601891</v>
+      </c>
+      <c r="H56">
+        <v>-0.005928615328335702</v>
+      </c>
+      <c r="I56">
+        <v>-0.03140377009920469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.009156053294841171</v>
+        <v>0.00660707749572547</v>
       </c>
       <c r="C58">
-        <v>0.01173554659793442</v>
+        <v>-0.05293263821198443</v>
       </c>
       <c r="D58">
-        <v>-0.2150872415608651</v>
+        <v>-0.2709982464388259</v>
       </c>
       <c r="E58">
-        <v>0.0811349810775437</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.01149178233069471</v>
+      </c>
+      <c r="F58">
+        <v>-0.1083345541122582</v>
+      </c>
+      <c r="G58">
+        <v>-0.118586993685752</v>
+      </c>
+      <c r="H58">
+        <v>-0.1219025203562092</v>
+      </c>
+      <c r="I58">
+        <v>0.06530799380450791</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1797362078028265</v>
+        <v>0.2527929658882663</v>
       </c>
       <c r="C59">
-        <v>-0.1482155002508237</v>
+        <v>0.06566626865188842</v>
       </c>
       <c r="D59">
-        <v>-0.04435535524549946</v>
+        <v>-0.05483113138508462</v>
       </c>
       <c r="E59">
-        <v>0.03535459376981512</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02201092912829718</v>
+      </c>
+      <c r="F59">
+        <v>-0.0246581863272626</v>
+      </c>
+      <c r="G59">
+        <v>-0.01068804129381084</v>
+      </c>
+      <c r="H59">
+        <v>-0.006571467487686879</v>
+      </c>
+      <c r="I59">
+        <v>-0.07555799544681899</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1855400888329007</v>
+        <v>0.1504440800961178</v>
       </c>
       <c r="C60">
-        <v>0.1000208336323855</v>
+        <v>-0.1712766491571401</v>
       </c>
       <c r="D60">
-        <v>-0.2082970667705888</v>
+        <v>-0.0943697716264302</v>
       </c>
       <c r="E60">
-        <v>-0.1612559267910992</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1658726199331896</v>
+      </c>
+      <c r="F60">
+        <v>0.2237291457875482</v>
+      </c>
+      <c r="G60">
+        <v>0.2633987673987015</v>
+      </c>
+      <c r="H60">
+        <v>-0.1754533360722521</v>
+      </c>
+      <c r="I60">
+        <v>-0.09579272448546597</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.0250222895146921</v>
+        <v>0.01083554545397626</v>
       </c>
       <c r="C61">
-        <v>0.05329463177216208</v>
+        <v>-0.07343951178162465</v>
       </c>
       <c r="D61">
-        <v>-0.09970883069872155</v>
+        <v>-0.07862347212934825</v>
       </c>
       <c r="E61">
-        <v>-0.006192589164897535</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03631399440322743</v>
+      </c>
+      <c r="F61">
+        <v>0.01341789937370602</v>
+      </c>
+      <c r="G61">
+        <v>0.01100204909492278</v>
+      </c>
+      <c r="H61">
+        <v>0.09280448613008262</v>
+      </c>
+      <c r="I61">
+        <v>0.02377392665330446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.006845778208253941</v>
+        <v>0.008481587790390379</v>
       </c>
       <c r="C63">
-        <v>0.02489320281186356</v>
+        <v>-0.03591539436991904</v>
       </c>
       <c r="D63">
-        <v>-0.09451323852850466</v>
+        <v>-0.06905503934671289</v>
       </c>
       <c r="E63">
-        <v>0.01501008112406929</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05592541835256237</v>
+      </c>
+      <c r="F63">
+        <v>-0.02841192788474803</v>
+      </c>
+      <c r="G63">
+        <v>-0.01819744538200496</v>
+      </c>
+      <c r="H63">
+        <v>0.06822022825064056</v>
+      </c>
+      <c r="I63">
+        <v>0.03098949169337229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05587776065525372</v>
+        <v>0.0196857195515631</v>
       </c>
       <c r="C64">
-        <v>0.08338476057431651</v>
+        <v>-0.1049959547898618</v>
       </c>
       <c r="D64">
-        <v>-0.03747701773304785</v>
+        <v>-0.01958419279502233</v>
       </c>
       <c r="E64">
-        <v>0.01462713419236705</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02853832324632063</v>
+      </c>
+      <c r="F64">
+        <v>-0.0189259027731202</v>
+      </c>
+      <c r="G64">
+        <v>0.03681129890975286</v>
+      </c>
+      <c r="H64">
+        <v>0.1061727863973272</v>
+      </c>
+      <c r="I64">
+        <v>0.04567843740606176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.0249379696712491</v>
+        <v>0.02106993442611458</v>
       </c>
       <c r="C65">
-        <v>0.01537053287229385</v>
+        <v>-0.04277284503675186</v>
       </c>
       <c r="D65">
-        <v>-0.1177172074771414</v>
+        <v>-0.1157629101340247</v>
       </c>
       <c r="E65">
-        <v>0.006036892098019414</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04144605201355142</v>
+      </c>
+      <c r="F65">
+        <v>0.006071370451487364</v>
+      </c>
+      <c r="G65">
+        <v>0.02135146014017896</v>
+      </c>
+      <c r="H65">
+        <v>0.03065990707487303</v>
+      </c>
+      <c r="I65">
+        <v>0.06617380886586237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.01852232697967884</v>
+        <v>0.0008861663677659615</v>
       </c>
       <c r="C66">
-        <v>0.06444515012427211</v>
+        <v>-0.09333131910577658</v>
       </c>
       <c r="D66">
-        <v>-0.1198011309605929</v>
+        <v>-0.1213765386982242</v>
       </c>
       <c r="E66">
-        <v>-0.01797479519515078</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.04025409712315936</v>
+      </c>
+      <c r="F66">
+        <v>0.008926059902164529</v>
+      </c>
+      <c r="G66">
+        <v>-0.02129811214110954</v>
+      </c>
+      <c r="H66">
+        <v>0.06086953397348339</v>
+      </c>
+      <c r="I66">
+        <v>0.03655696696663314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.0236587222703359</v>
+        <v>0.0245765320531306</v>
       </c>
       <c r="C67">
-        <v>0.01979057338902197</v>
+        <v>-0.03084570257091063</v>
       </c>
       <c r="D67">
-        <v>-0.04397222126123781</v>
+        <v>-0.03817480316953389</v>
       </c>
       <c r="E67">
-        <v>-0.01565814246810745</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.008319760324100037</v>
+      </c>
+      <c r="F67">
+        <v>0.02737852456608422</v>
+      </c>
+      <c r="G67">
+        <v>-0.01712207019823592</v>
+      </c>
+      <c r="H67">
+        <v>0.06625220651698938</v>
+      </c>
+      <c r="I67">
+        <v>0.01881982257469461</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.203995346976395</v>
+        <v>0.2730651561173391</v>
       </c>
       <c r="C68">
-        <v>-0.1575147567965747</v>
+        <v>0.07028011123465008</v>
       </c>
       <c r="D68">
-        <v>-0.03232643735249123</v>
+        <v>-0.02506489514839555</v>
       </c>
       <c r="E68">
-        <v>0.007700325632982781</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.005567629859949932</v>
+      </c>
+      <c r="F68">
+        <v>-0.02594377327096517</v>
+      </c>
+      <c r="G68">
+        <v>-0.06125890655887426</v>
+      </c>
+      <c r="H68">
+        <v>-0.06673198494558023</v>
+      </c>
+      <c r="I68">
+        <v>-0.04376998312054453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.05669450243416558</v>
+        <v>0.02035219604301279</v>
       </c>
       <c r="C69">
-        <v>0.1146480190814988</v>
+        <v>-0.1182209001551653</v>
       </c>
       <c r="D69">
-        <v>-0.08099811818457898</v>
+        <v>-0.03391643424370559</v>
       </c>
       <c r="E69">
-        <v>0.01665218303071572</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.008348988876301323</v>
+      </c>
+      <c r="F69">
+        <v>0.006607402053782195</v>
+      </c>
+      <c r="G69">
+        <v>0.01847809520257732</v>
+      </c>
+      <c r="H69">
+        <v>0.04789989611608678</v>
+      </c>
+      <c r="I69">
+        <v>-0.0224803526094622</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2136878474266043</v>
+        <v>0.2748016015870299</v>
       </c>
       <c r="C71">
-        <v>-0.1809068124520381</v>
+        <v>0.08321532512326657</v>
       </c>
       <c r="D71">
-        <v>-0.02078967720753813</v>
+        <v>-0.01612055687445436</v>
       </c>
       <c r="E71">
-        <v>0.01338502348092185</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.00150831726829942</v>
+      </c>
+      <c r="F71">
+        <v>-0.02002304772406605</v>
+      </c>
+      <c r="G71">
+        <v>-0.03678216310300337</v>
+      </c>
+      <c r="H71">
+        <v>0.01372393588416652</v>
+      </c>
+      <c r="I71">
+        <v>-0.04894371107090144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.105567670562669</v>
+        <v>0.05585536901561628</v>
       </c>
       <c r="C72">
-        <v>0.07452891560125162</v>
+        <v>-0.1247813378304044</v>
       </c>
       <c r="D72">
-        <v>-0.1080942625394136</v>
+        <v>-0.05606563879645765</v>
       </c>
       <c r="E72">
-        <v>-0.04693616647496001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07016010740901253</v>
+      </c>
+      <c r="F72">
+        <v>0.02961391774356449</v>
+      </c>
+      <c r="G72">
+        <v>0.0226811041561279</v>
+      </c>
+      <c r="H72">
+        <v>0.05539198031035543</v>
+      </c>
+      <c r="I72">
+        <v>0.06307083776908372</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1726607728747005</v>
+        <v>0.1413328306110742</v>
       </c>
       <c r="C73">
-        <v>0.06390877602063968</v>
+        <v>-0.144291386659799</v>
       </c>
       <c r="D73">
-        <v>-0.272778778161204</v>
+        <v>-0.1034427201434214</v>
       </c>
       <c r="E73">
-        <v>-0.2458585115352278</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2933869744293998</v>
+      </c>
+      <c r="F73">
+        <v>0.320867171168539</v>
+      </c>
+      <c r="G73">
+        <v>0.4258306047419786</v>
+      </c>
+      <c r="H73">
+        <v>-0.08171242598314357</v>
+      </c>
+      <c r="I73">
+        <v>-0.03073595844219835</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1080160921915036</v>
+        <v>0.05019480006892463</v>
       </c>
       <c r="C74">
-        <v>0.1146551659832979</v>
+        <v>-0.1458631358501892</v>
       </c>
       <c r="D74">
-        <v>0.01655352752148452</v>
+        <v>0.04067329508976517</v>
       </c>
       <c r="E74">
-        <v>0.0415973107704152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.009435188083500716</v>
+      </c>
+      <c r="F74">
+        <v>-0.03693561216051922</v>
+      </c>
+      <c r="G74">
+        <v>0.005638122335558338</v>
+      </c>
+      <c r="H74">
+        <v>-0.01705644504953487</v>
+      </c>
+      <c r="I74">
+        <v>-0.04313881207554649</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2338004829666963</v>
+        <v>0.1102090285603129</v>
       </c>
       <c r="C75">
-        <v>0.1993671559163373</v>
+        <v>-0.2682287940731393</v>
       </c>
       <c r="D75">
-        <v>0.1044328863467606</v>
+        <v>0.1388359201449807</v>
       </c>
       <c r="E75">
-        <v>-0.02847947656579706</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08733015687290302</v>
+      </c>
+      <c r="F75">
+        <v>0.03117112510129598</v>
+      </c>
+      <c r="G75">
+        <v>-0.09573405647710566</v>
+      </c>
+      <c r="H75">
+        <v>-0.007729574862657576</v>
+      </c>
+      <c r="I75">
+        <v>-0.01874037658948422</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1395700666156922</v>
+        <v>0.06275691319722781</v>
       </c>
       <c r="C76">
-        <v>0.1385404205459081</v>
+        <v>-0.1819151430479895</v>
       </c>
       <c r="D76">
-        <v>-0.01610717529174594</v>
+        <v>0.03697731701737211</v>
       </c>
       <c r="E76">
-        <v>0.01071792886871467</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02131866426156478</v>
+      </c>
+      <c r="F76">
+        <v>-0.004256131911718296</v>
+      </c>
+      <c r="G76">
+        <v>-0.04217048858241925</v>
+      </c>
+      <c r="H76">
+        <v>0.02459257745633549</v>
+      </c>
+      <c r="I76">
+        <v>-0.01622794344622438</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02075456467896739</v>
+        <v>0.001186104606610608</v>
       </c>
       <c r="C77">
-        <v>0.0677807159282789</v>
+        <v>-0.1071622963014241</v>
       </c>
       <c r="D77">
-        <v>-0.003143674051404144</v>
+        <v>-0.3083723568516168</v>
       </c>
       <c r="E77">
-        <v>0.2242737399539267</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8435310118546793</v>
+      </c>
+      <c r="F77">
+        <v>0.2276154948720786</v>
+      </c>
+      <c r="G77">
+        <v>0.2320845952232395</v>
+      </c>
+      <c r="H77">
+        <v>-0.1066531530772769</v>
+      </c>
+      <c r="I77">
+        <v>-0.001543118599508615</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.0256750407081211</v>
+        <v>0.01662593820584</v>
       </c>
       <c r="C78">
-        <v>0.06844585781165985</v>
+        <v>-0.08992801691787006</v>
       </c>
       <c r="D78">
-        <v>-0.1535255042654258</v>
+        <v>-0.1209488451988129</v>
       </c>
       <c r="E78">
-        <v>0.04454114807460035</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06778319760446951</v>
+      </c>
+      <c r="F78">
+        <v>-0.04304738344739202</v>
+      </c>
+      <c r="G78">
+        <v>-0.03639441891275116</v>
+      </c>
+      <c r="H78">
+        <v>0.01304532581619179</v>
+      </c>
+      <c r="I78">
+        <v>-0.1238616420079266</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09602654888847839</v>
+        <v>0.03566437462090116</v>
       </c>
       <c r="C79">
-        <v>0.1753251471320898</v>
+        <v>-0.1918838549640601</v>
       </c>
       <c r="D79">
-        <v>0.09754612990589187</v>
+        <v>0.07388648250577341</v>
       </c>
       <c r="E79">
-        <v>0.8034496904150713</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.0496471738114586</v>
+      </c>
+      <c r="F79">
+        <v>-0.7723058895225203</v>
+      </c>
+      <c r="G79">
+        <v>0.4624964486431933</v>
+      </c>
+      <c r="H79">
+        <v>-0.2159029082506171</v>
+      </c>
+      <c r="I79">
+        <v>0.05618224164195269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.004755329653283904</v>
+        <v>0.005526618865128792</v>
       </c>
       <c r="C80">
-        <v>0.04646172172066682</v>
+        <v>-0.04646772553619879</v>
       </c>
       <c r="D80">
-        <v>-0.05224910980280725</v>
+        <v>-0.04233131224200719</v>
       </c>
       <c r="E80">
-        <v>-0.008326774549759117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04362303814107387</v>
+      </c>
+      <c r="F80">
+        <v>-0.005787539534689137</v>
+      </c>
+      <c r="G80">
+        <v>-0.02207910480125147</v>
+      </c>
+      <c r="H80">
+        <v>0.02159395124136653</v>
+      </c>
+      <c r="I80">
+        <v>-0.07269623170864203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1188282806298943</v>
+        <v>0.04410263890695702</v>
       </c>
       <c r="C81">
-        <v>0.1346318863413221</v>
+        <v>-0.1677991588201216</v>
       </c>
       <c r="D81">
-        <v>0.07145568751777555</v>
+        <v>0.07899732203195087</v>
       </c>
       <c r="E81">
-        <v>0.06087310508450762</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04921880870979826</v>
+      </c>
+      <c r="F81">
+        <v>-0.06336972264015339</v>
+      </c>
+      <c r="G81">
+        <v>-0.05707932275634681</v>
+      </c>
+      <c r="H81">
+        <v>0.06602174906184566</v>
+      </c>
+      <c r="I81">
+        <v>-0.03943398603002263</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2522509977325086</v>
+        <v>0.09297294546855503</v>
       </c>
       <c r="C82">
-        <v>0.2985173733268775</v>
+        <v>-0.3238224039031573</v>
       </c>
       <c r="D82">
-        <v>0.200065510825738</v>
+        <v>0.23717222700896</v>
       </c>
       <c r="E82">
-        <v>-0.140970311155143</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.05389522200842483</v>
+      </c>
+      <c r="F82">
+        <v>0.1053907725966002</v>
+      </c>
+      <c r="G82">
+        <v>-0.1131445784395701</v>
+      </c>
+      <c r="H82">
+        <v>0.09467180380287057</v>
+      </c>
+      <c r="I82">
+        <v>-0.0322348650350892</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.007722580560199308</v>
+        <v>-0.01644777262130438</v>
       </c>
       <c r="C83">
-        <v>0.05159359232361398</v>
+        <v>-0.02612071720849515</v>
       </c>
       <c r="D83">
-        <v>-0.01155067602908881</v>
+        <v>-0.02687773448413966</v>
       </c>
       <c r="E83">
-        <v>0.05729432108787258</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.07419054511406487</v>
+      </c>
+      <c r="F83">
+        <v>-0.070043587078515</v>
+      </c>
+      <c r="G83">
+        <v>-0.08843091186329334</v>
+      </c>
+      <c r="H83">
+        <v>0.02473516792511313</v>
+      </c>
+      <c r="I83">
+        <v>-0.8198830187054857</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0005494201325078267</v>
+        <v>-0.001093856007506857</v>
       </c>
       <c r="C84">
-        <v>-0.001755785188269857</v>
+        <v>-0.01941279124572555</v>
       </c>
       <c r="D84">
-        <v>-0.004878039895741677</v>
+        <v>-0.04736166856693953</v>
       </c>
       <c r="E84">
-        <v>0.0003655950061656981</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.002309259087982474</v>
+      </c>
+      <c r="F84">
+        <v>-0.02869856639506457</v>
+      </c>
+      <c r="G84">
+        <v>-0.05223898308557331</v>
+      </c>
+      <c r="H84">
+        <v>0.006333993314912131</v>
+      </c>
+      <c r="I84">
+        <v>0.06630843628551616</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1410540669123882</v>
+        <v>0.0583862681514332</v>
       </c>
       <c r="C85">
-        <v>0.1387692564749442</v>
+        <v>-0.1833541767534479</v>
       </c>
       <c r="D85">
-        <v>0.03938818021226854</v>
+        <v>0.09168969905983194</v>
       </c>
       <c r="E85">
-        <v>0.02662531597500001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.002614868107445968</v>
+      </c>
+      <c r="F85">
+        <v>-0.07407462672228034</v>
+      </c>
+      <c r="G85">
+        <v>-0.01994861736170208</v>
+      </c>
+      <c r="H85">
+        <v>-0.008605429777191165</v>
+      </c>
+      <c r="I85">
+        <v>-0.01454057011525045</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01330417372563344</v>
+        <v>0.01224952732564566</v>
       </c>
       <c r="C86">
-        <v>0.01488399369962751</v>
+        <v>-0.03261835673368838</v>
       </c>
       <c r="D86">
-        <v>-0.07540013260033224</v>
+        <v>-0.09758654543114112</v>
       </c>
       <c r="E86">
-        <v>0.04976618482657978</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02393903823615886</v>
+      </c>
+      <c r="F86">
+        <v>0.001561142244395263</v>
+      </c>
+      <c r="G86">
+        <v>0.003216394291214722</v>
+      </c>
+      <c r="H86">
+        <v>0.01743477068505411</v>
+      </c>
+      <c r="I86">
+        <v>-0.03068199364032204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01940284977594433</v>
+        <v>0.01220124353145287</v>
       </c>
       <c r="C87">
-        <v>0.02425989138413589</v>
+        <v>-0.05761398714753234</v>
       </c>
       <c r="D87">
-        <v>-0.1338091452586314</v>
+        <v>-0.144904651025133</v>
       </c>
       <c r="E87">
-        <v>0.05323832715082966</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01137057021780107</v>
+      </c>
+      <c r="F87">
+        <v>-0.04362297963357829</v>
+      </c>
+      <c r="G87">
+        <v>-0.05885001289101516</v>
+      </c>
+      <c r="H87">
+        <v>0.02341817392777735</v>
+      </c>
+      <c r="I87">
+        <v>-0.04050437162785647</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05310201181684442</v>
+        <v>0.0346229405090086</v>
       </c>
       <c r="C88">
-        <v>0.04489050948104208</v>
+        <v>-0.06656704716989437</v>
       </c>
       <c r="D88">
-        <v>-0.02656885599298603</v>
+        <v>-0.0119097243166682</v>
       </c>
       <c r="E88">
-        <v>0.03051116002565735</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02595839314129705</v>
+      </c>
+      <c r="F88">
+        <v>-0.0182630138929728</v>
+      </c>
+      <c r="G88">
+        <v>0.009399438203983127</v>
+      </c>
+      <c r="H88">
+        <v>0.01972634201533307</v>
+      </c>
+      <c r="I88">
+        <v>0.02629801007330905</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3196737587890386</v>
+        <v>0.4075657200404462</v>
       </c>
       <c r="C89">
-        <v>-0.3269562740692535</v>
+        <v>0.1578797821001772</v>
       </c>
       <c r="D89">
-        <v>-0.01408485770972795</v>
+        <v>-0.02759703047634226</v>
       </c>
       <c r="E89">
-        <v>0.09531279879836745</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05580316011254221</v>
+      </c>
+      <c r="F89">
+        <v>-0.07154297964232539</v>
+      </c>
+      <c r="G89">
+        <v>-0.04945921362298954</v>
+      </c>
+      <c r="H89">
+        <v>0.1136274305856359</v>
+      </c>
+      <c r="I89">
+        <v>-0.02638945985995235</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2546847695608841</v>
+        <v>0.3179081133701705</v>
       </c>
       <c r="C90">
-        <v>-0.2392229581632032</v>
+        <v>0.1056081894706736</v>
       </c>
       <c r="D90">
-        <v>-0.0369846823064624</v>
+        <v>-0.03280671835148485</v>
       </c>
       <c r="E90">
-        <v>-0.008548288884226811</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01174789941966975</v>
+      </c>
+      <c r="F90">
+        <v>0.008076607775400495</v>
+      </c>
+      <c r="G90">
+        <v>-0.06407459867972294</v>
+      </c>
+      <c r="H90">
+        <v>-0.02177366479902071</v>
+      </c>
+      <c r="I90">
+        <v>-0.04707393264525596</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1557521669605841</v>
+        <v>0.06927308446287828</v>
       </c>
       <c r="C91">
-        <v>0.1881688423659948</v>
+        <v>-0.2091784607296788</v>
       </c>
       <c r="D91">
-        <v>0.09941265112011588</v>
+        <v>0.1123803244066744</v>
       </c>
       <c r="E91">
-        <v>0.09165134081804328</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05979317761809578</v>
+      </c>
+      <c r="F91">
+        <v>-0.0719743384346553</v>
+      </c>
+      <c r="G91">
+        <v>-0.005621024183872121</v>
+      </c>
+      <c r="H91">
+        <v>-0.001349126247203235</v>
+      </c>
+      <c r="I91">
+        <v>-0.05240740767439729</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2409503278574601</v>
+        <v>0.3371147385103776</v>
       </c>
       <c r="C92">
-        <v>-0.2615230037513406</v>
+        <v>0.1439212250216582</v>
       </c>
       <c r="D92">
-        <v>0.0514838825398363</v>
+        <v>-0.0008236531362420678</v>
       </c>
       <c r="E92">
-        <v>0.04987208297189269</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06528323257233634</v>
+      </c>
+      <c r="F92">
+        <v>-0.02992014725794383</v>
+      </c>
+      <c r="G92">
+        <v>-0.02373789316381112</v>
+      </c>
+      <c r="H92">
+        <v>0.02453322722070727</v>
+      </c>
+      <c r="I92">
+        <v>0.2472044714530683</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2799152815905923</v>
+        <v>0.3346020511403822</v>
       </c>
       <c r="C93">
-        <v>-0.2513245987286878</v>
+        <v>0.1177175751280335</v>
       </c>
       <c r="D93">
-        <v>-0.01481772002119019</v>
+        <v>0.01890222984493616</v>
       </c>
       <c r="E93">
-        <v>0.004559712492451165</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02488337751018572</v>
+      </c>
+      <c r="F93">
+        <v>-0.007657601521883438</v>
+      </c>
+      <c r="G93">
+        <v>0.01924645995833301</v>
+      </c>
+      <c r="H93">
+        <v>-0.001605827619245744</v>
+      </c>
+      <c r="I93">
+        <v>-0.0008644659528871669</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2963259458060983</v>
+        <v>0.132171594407926</v>
       </c>
       <c r="C94">
-        <v>0.2737152943516784</v>
+        <v>-0.3523259900141003</v>
       </c>
       <c r="D94">
-        <v>0.347461574051805</v>
+        <v>0.3582362573091825</v>
       </c>
       <c r="E94">
-        <v>-0.2142934105553771</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.05940495861344964</v>
+      </c>
+      <c r="F94">
+        <v>0.1002694056510129</v>
+      </c>
+      <c r="G94">
+        <v>-0.3038351351772943</v>
+      </c>
+      <c r="H94">
+        <v>-0.09722087626473586</v>
+      </c>
+      <c r="I94">
+        <v>0.160205712014978</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.01447001608832815</v>
+        <v>0.01912006961102487</v>
       </c>
       <c r="C95">
-        <v>0.0372850229328827</v>
+        <v>-0.06293843827746758</v>
       </c>
       <c r="D95">
-        <v>-0.02115028595465435</v>
+        <v>-0.1090057711181009</v>
       </c>
       <c r="E95">
-        <v>0.08715873936544258</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1551401996868156</v>
+      </c>
+      <c r="F95">
+        <v>0.01478669658087536</v>
+      </c>
+      <c r="G95">
+        <v>0.03152998025870898</v>
+      </c>
+      <c r="H95">
+        <v>0.4008526354247393</v>
+      </c>
+      <c r="I95">
+        <v>0.2213020799534496</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001190589166194233</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.000545866443050849</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0008161302167144591</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003455965252198836</v>
+      </c>
+      <c r="F97">
+        <v>-0.0001875151484478085</v>
+      </c>
+      <c r="G97">
+        <v>-0.0007338337607075974</v>
+      </c>
+      <c r="H97">
+        <v>0.003247951178057846</v>
+      </c>
+      <c r="I97">
+        <v>0.004584378332819578</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1438347713115951</v>
+        <v>0.1154415212326163</v>
       </c>
       <c r="C98">
-        <v>0.08568526251815166</v>
+        <v>-0.1499111621175261</v>
       </c>
       <c r="D98">
-        <v>-0.1560010156103093</v>
+        <v>-0.06967383636036414</v>
       </c>
       <c r="E98">
-        <v>-0.1928654477695289</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.201734380446043</v>
+      </c>
+      <c r="F98">
+        <v>0.2484957623296351</v>
+      </c>
+      <c r="G98">
+        <v>0.3068923416609304</v>
+      </c>
+      <c r="H98">
+        <v>-0.1220370147188846</v>
+      </c>
+      <c r="I98">
+        <v>-0.0416562840820656</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001334361306191638</v>
+        <v>0.0008383729520149812</v>
       </c>
       <c r="C101">
-        <v>0.02041971535277797</v>
+        <v>-0.03508234352671641</v>
       </c>
       <c r="D101">
-        <v>-0.09621215429368377</v>
+        <v>-0.1037969208432269</v>
       </c>
       <c r="E101">
-        <v>0.01709462163269921</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.05517363110777138</v>
+      </c>
+      <c r="F101">
+        <v>-0.03971806266875925</v>
+      </c>
+      <c r="G101">
+        <v>-0.02125507330558292</v>
+      </c>
+      <c r="H101">
+        <v>0.1325436676249892</v>
+      </c>
+      <c r="I101">
+        <v>0.01287810338940106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1062840474168574</v>
+        <v>0.02948182917031576</v>
       </c>
       <c r="C102">
-        <v>0.1584690186878556</v>
+        <v>-0.1499711723194032</v>
       </c>
       <c r="D102">
-        <v>0.06569759959649234</v>
+        <v>0.09829118971078644</v>
       </c>
       <c r="E102">
-        <v>-0.05258602710133728</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03383894460699462</v>
+      </c>
+      <c r="F102">
+        <v>0.06309249178351929</v>
+      </c>
+      <c r="G102">
+        <v>-0.003044125972374074</v>
+      </c>
+      <c r="H102">
+        <v>0.05289824369546502</v>
+      </c>
+      <c r="I102">
+        <v>-0.03076446131651166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
